--- a/activity/Population/PoblacionSISBEN.xlsx
+++ b/activity/Population/PoblacionSISBEN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\Population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8CFFDC-13C3-47C1-986E-CE0B1A4B6139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E15F2E6-F888-41F7-8BD6-6927AB1F9A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" tabRatio="769" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,7 +311,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
   <si>
     <t>Logarítmica</t>
   </si>
@@ -1345,8 +1345,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39969088940106778"/>
-          <c:y val="1.2110364517204108E-2"/>
+          <c:x val="0.36233587641936904"/>
+          <c:y val="1.2110345980155313E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1642,6 +1642,7 @@
         <c:axId val="663400832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="90000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1897,8 +1898,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.094480305121253E-2"/>
           <c:y val="6.9351170704609222E-2"/>
-          <c:w val="0.88538511457614932"/>
-          <c:h val="0.85574493143823971"/>
+          <c:w val="0.89786267010235477"/>
+          <c:h val="0.81537701614921876"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3436,7 +3437,7 @@
         <c:axId val="663400352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1900"/>
+          <c:min val="2015"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3541,6 +3542,7 @@
         <c:axId val="663400832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="85000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3756,7 +3758,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>SISBEN - Población censal Municipio y población proyectada a 50 para el ajuste seleccionado</c:v>
+              <c:v>SISBEN - Población censal Municipio y población proyectada a 50 años para el ajuste seleccionado</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -6027,7 +6029,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7719926C-FDFD-4B6F-9591-D15E2C7B4756}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -6039,7 +6041,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B74D3F2C-D5F1-41AE-ACE4-DFC0B9A95345}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -6051,7 +6053,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{86C66609-86C6-4B72-9620-31705379CED0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -6966,7 +6968,7 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
@@ -7253,8 +7255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94697D0-7CF3-40B1-9A24-C33BBE54D035}">
   <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -7619,8 +7621,12 @@
         <v>59</v>
       </c>
       <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
+      <c r="F13" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>60</v>
+      </c>
       <c r="H13" s="57" t="s">
         <v>60</v>
       </c>
@@ -7640,10 +7646,10 @@
       <c r="D14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21" t="s">
+      <c r="E14" s="21" t="s">
         <v>25</v>
       </c>
+      <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
@@ -8283,8 +8289,8 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="str">
-        <f>_xlfn.CONCAT(Censal!A2," - Población censal ",Censal!B2," y población proyectada a ",D29-D19," para el ajuste seleccionado")</f>
-        <v>SISBEN - Población censal Municipio y población proyectada a 50 para el ajuste seleccionado</v>
+        <f>_xlfn.CONCAT(Censal!A2," - Población censal ",Censal!B2," y población proyectada a ",D29-D19," años para el ajuste seleccionado")</f>
+        <v>SISBEN - Población censal Municipio y población proyectada a 50 años para el ajuste seleccionado</v>
       </c>
       <c r="D33" s="13"/>
     </row>
@@ -8322,7 +8328,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5:D15"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>

--- a/activity/Population/PoblacionSISBEN.xlsx
+++ b/activity/Population/PoblacionSISBEN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\Population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E15F2E6-F888-41F7-8BD6-6927AB1F9A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F513CE-205D-4902-8EF1-C73092B049C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" tabRatio="769" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Censal" sheetId="2" r:id="rId1"/>
@@ -281,6 +281,19 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Adultos mayores </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{B16D4A92-E94C-4C2F-825B-45B9B9489857}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tomado de Gobernación de Cundinamarca, no se precisa la fecha exacta del dato</t>
         </r>
       </text>
     </comment>
@@ -1241,6 +1254,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1250,8 +1266,11 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="1" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1291,12 +1310,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1482,35 +1495,41 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Censal!$C$2:$C$4</c:f>
+              <c:f>Censal!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023</c:v>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Censal!$D$2:$D$4</c:f>
+              <c:f>Censal!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>41271</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>90300</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>93328</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>96476</c:v>
                 </c:pt>
               </c:numCache>
@@ -1538,6 +1557,8 @@
         <c:axId val="663400352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2019"/>
+          <c:min val="1999"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1642,7 +1663,7 @@
         <c:axId val="663400832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="90000"/>
+          <c:min val="40000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1940,37 +1961,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2024</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2029</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2034</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2039</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2044</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2049</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2054</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2059</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2064</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2069</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1982,37 +2003,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>97408</c:v>
+                  <c:v>99498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101196</c:v>
+                  <c:v>114822</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104984</c:v>
+                  <c:v>130146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>108771</c:v>
+                  <c:v>145470</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112559</c:v>
+                  <c:v>160793</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>116347</c:v>
+                  <c:v>176117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120134</c:v>
+                  <c:v>191441</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>123922</c:v>
+                  <c:v>206764</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>127710</c:v>
+                  <c:v>222088</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>131497</c:v>
+                  <c:v>237412</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>135285</c:v>
+                  <c:v>252736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2123,37 +2144,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2024</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2029</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2034</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2039</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2044</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2049</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2054</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2059</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2064</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2069</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2165,37 +2186,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>94497</c:v>
+                  <c:v>99551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73875</c:v>
+                  <c:v>115062</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35373</c:v>
+                  <c:v>130646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-21011</c:v>
+                  <c:v>146302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-95276</c:v>
+                  <c:v>162031</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-187422</c:v>
+                  <c:v>177833</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-297448</c:v>
+                  <c:v>193707</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-425356</c:v>
+                  <c:v>209654</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-571145</c:v>
+                  <c:v>225673</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-734814</c:v>
+                  <c:v>241765</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-916365</c:v>
+                  <c:v>257930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2306,37 +2327,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2024</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2029</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2034</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2039</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2044</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2049</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2054</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2059</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2064</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2069</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2348,37 +2369,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>94491</c:v>
+                  <c:v>99551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73765</c:v>
+                  <c:v>115063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34975</c:v>
+                  <c:v>130647</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-21968</c:v>
+                  <c:v>146305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-97153</c:v>
+                  <c:v>162036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-190668</c:v>
+                  <c:v>177841</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-302601</c:v>
+                  <c:v>193719</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-433043</c:v>
+                  <c:v>209671</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-582080</c:v>
+                  <c:v>225698</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-749802</c:v>
+                  <c:v>241799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-936298</c:v>
+                  <c:v>257974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2423,37 +2444,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2024</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2029</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2034</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2039</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2044</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2049</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2054</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2059</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2064</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2069</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2465,37 +2486,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>94484</c:v>
+                  <c:v>99551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73654</c:v>
+                  <c:v>115063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34574</c:v>
+                  <c:v>130647</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-22934</c:v>
+                  <c:v>146305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-99049</c:v>
+                  <c:v>162036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-193954</c:v>
+                  <c:v>177840</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-307827</c:v>
+                  <c:v>193718</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-440852</c:v>
+                  <c:v>209670</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-593211</c:v>
+                  <c:v>225696</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-765086</c:v>
+                  <c:v>241796</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-956662</c:v>
+                  <c:v>257970</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2540,37 +2561,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2024</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2029</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2034</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2039</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2044</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2049</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2054</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2059</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2064</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2069</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2582,37 +2603,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>94477</c:v>
+                  <c:v>99551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73542</c:v>
+                  <c:v>115062</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34171</c:v>
+                  <c:v>130646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-23907</c:v>
+                  <c:v>146302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-100966</c:v>
+                  <c:v>162031</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-197280</c:v>
+                  <c:v>177832</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-313127</c:v>
+                  <c:v>193705</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-448787</c:v>
+                  <c:v>209650</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-604541</c:v>
+                  <c:v>225667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-780672</c:v>
+                  <c:v>241757</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-977467</c:v>
+                  <c:v>257918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2657,37 +2678,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2024</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2029</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2034</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2039</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2044</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2049</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2054</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2059</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2064</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2069</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2699,37 +2720,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>94471</c:v>
+                  <c:v>99551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73430</c:v>
+                  <c:v>115062</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33765</c:v>
+                  <c:v>130644</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-24889</c:v>
+                  <c:v>146297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-102902</c:v>
+                  <c:v>162021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-200647</c:v>
+                  <c:v>177814</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-318503</c:v>
+                  <c:v>193678</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-456850</c:v>
+                  <c:v>209610</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-616074</c:v>
+                  <c:v>225610</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-796567</c:v>
+                  <c:v>241678</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-998722</c:v>
+                  <c:v>257814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2842,37 +2863,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2024</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2029</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2034</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2039</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2044</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2049</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2054</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2059</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2064</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2069</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2884,37 +2905,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>97407</c:v>
+                  <c:v>99471</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101182</c:v>
+                  <c:v>114697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104948</c:v>
+                  <c:v>129885</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>108705</c:v>
+                  <c:v>145036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112452</c:v>
+                  <c:v>160149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>116191</c:v>
+                  <c:v>175226</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>119920</c:v>
+                  <c:v>190266</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>123640</c:v>
+                  <c:v>205269</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>127351</c:v>
+                  <c:v>220236</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>131053</c:v>
+                  <c:v>235166</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>134747</c:v>
+                  <c:v>250060</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3027,37 +3048,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2024</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2029</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2034</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2039</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2044</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2049</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2054</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2059</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2064</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2069</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3069,37 +3090,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>97444</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101450</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105609</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109928</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114413</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>119069</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123902</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128919</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>134127</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>139531</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>145139</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3212,37 +3233,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2024</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2029</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2034</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2039</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2044</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2049</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2054</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2059</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2064</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2069</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3254,37 +3275,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>97445</c:v>
+                  <c:v>102651</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101464</c:v>
+                  <c:v>130407</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105649</c:v>
+                  <c:v>165668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110006</c:v>
+                  <c:v>210463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114543</c:v>
+                  <c:v>267370</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>119267</c:v>
+                  <c:v>339664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124186</c:v>
+                  <c:v>431507</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>129307</c:v>
+                  <c:v>548182</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>134640</c:v>
+                  <c:v>696406</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>140193</c:v>
+                  <c:v>884708</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>145975</c:v>
+                  <c:v>1123925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3381,35 +3402,41 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Censal!$C$2:$C$4</c:f>
+              <c:f>Censal!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023</c:v>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Censal!$D$2:$D$4</c:f>
+              <c:f>Censal!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>41271</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>90300</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>93328</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>96476</c:v>
                 </c:pt>
               </c:numCache>
@@ -3437,7 +3464,7 @@
         <c:axId val="663400352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="2015"/>
+          <c:min val="1995"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3542,7 +3569,7 @@
         <c:axId val="663400832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="85000"/>
+          <c:min val="4000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3845,6 +3872,28 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5749325247499143E-2"/>
+                  <c:y val="-5.2518835892879236E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-51A8-433A-A9F0-01F10F684766}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
@@ -3861,6 +3910,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-51A8-433A-A9F0-01F10F684766}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3880,6 +3932,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-51A8-433A-A9F0-01F10F684766}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3941,46 +3996,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2016</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2023</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2024</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2029</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2034</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2039</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2044</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2049</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2054</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2059</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2064</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>2069</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3992,7 +4047,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>90300</c:v>
+                  <c:v>41271</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>93328</c:v>
@@ -4001,37 +4056,37 @@
                   <c:v>96476</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97408</c:v>
+                  <c:v>99498</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101196</c:v>
+                  <c:v>114822</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104984</c:v>
+                  <c:v>130146</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>108771</c:v>
+                  <c:v>145470</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112559</c:v>
+                  <c:v>160793</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>116347</c:v>
+                  <c:v>176117</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>120134</c:v>
+                  <c:v>191441</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>123922</c:v>
+                  <c:v>206764</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>127710</c:v>
+                  <c:v>222088</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>131497</c:v>
+                  <c:v>237412</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>135285</c:v>
+                  <c:v>252736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4162,7 +4217,6 @@
         <c:axId val="663400832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="80000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6029,7 +6083,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7719926C-FDFD-4B6F-9591-D15E2C7B4756}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -6041,7 +6095,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B74D3F2C-D5F1-41AE-ACE4-DFC0B9A95345}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="112" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -6053,7 +6107,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{86C66609-86C6-4B72-9620-31705379CED0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="112" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -6065,7 +6119,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="12239329" cy="6294783"/>
+    <xdr:ext cx="12229681" cy="6288593"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6098,7 +6152,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="12237044" cy="6292131"/>
+    <xdr:ext cx="12236709" cy="6293304"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6131,7 +6185,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="12237044" cy="6292131"/>
+    <xdr:ext cx="12236709" cy="6293304"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6423,11 +6477,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0463F7D-8A04-4EDE-8789-543ED0F016DA}">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -6528,20 +6582,22 @@
         <v>14</v>
       </c>
       <c r="C2" s="9">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="D2" s="9">
-        <v>90300</v>
-      </c>
-      <c r="E2" s="9">
-        <v>42935</v>
-      </c>
-      <c r="F2" s="9">
-        <v>47365</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+        <v>41271</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9">
+        <v>34475</v>
+      </c>
+      <c r="H2" s="9">
+        <v>6480</v>
+      </c>
+      <c r="I2" s="9">
+        <v>316</v>
+      </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -6568,13 +6624,17 @@
         <v>Municipio</v>
       </c>
       <c r="C3" s="9">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D3" s="9">
-        <v>93328</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+        <v>90300</v>
+      </c>
+      <c r="E3" s="9">
+        <v>42935</v>
+      </c>
+      <c r="F3" s="9">
+        <v>47365</v>
+      </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -6596,34 +6656,24 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="str">
-        <f t="shared" ref="A4" si="0">$A$2</f>
+        <f>$A$2</f>
         <v>SISBEN</v>
       </c>
       <c r="B4" s="11" t="str">
-        <f t="shared" ref="B4" si="1">$B$2</f>
+        <f>$B$2</f>
         <v>Municipio</v>
       </c>
       <c r="C4" s="9">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="D4" s="9">
-        <v>96476</v>
-      </c>
-      <c r="E4" s="9">
-        <v>44466</v>
-      </c>
-      <c r="F4" s="9">
-        <v>52010</v>
-      </c>
-      <c r="G4" s="9">
-        <v>74495</v>
-      </c>
-      <c r="H4" s="9">
-        <v>7081</v>
-      </c>
-      <c r="I4" s="9">
-        <v>14900</v>
-      </c>
+        <v>93328</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -6641,15 +6691,35 @@
       <c r="X4" s="9"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="11" t="str">
+        <f t="shared" ref="A5" si="0">$A$2</f>
+        <v>SISBEN</v>
+      </c>
+      <c r="B5" s="11" t="str">
+        <f t="shared" ref="B5" si="1">$B$2</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="9">
+        <v>96476</v>
+      </c>
+      <c r="E5" s="9">
+        <v>44466</v>
+      </c>
+      <c r="F5" s="9">
+        <v>52010</v>
+      </c>
+      <c r="G5" s="9">
+        <v>74495</v>
+      </c>
+      <c r="H5" s="9">
+        <v>7081</v>
+      </c>
+      <c r="I5" s="9">
+        <v>14900</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -6693,6 +6763,8 @@
       <c r="X6" s="9"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -6955,6 +7027,30 @@
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -6986,14 +7082,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="4" spans="2:7" ht="23.15" x14ac:dyDescent="0.4">
       <c r="B4" s="45" t="s">
@@ -7013,21 +7109,21 @@
     </row>
     <row r="5" spans="2:7" ht="18" x14ac:dyDescent="0.4">
       <c r="B5" s="45"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="2:7" ht="26.6" x14ac:dyDescent="0.4">
       <c r="B6" s="45"/>
       <c r="C6" s="35"/>
-      <c r="D6" s="76">
-        <f>MAX(Censal!D2:D102)</f>
+      <c r="D6" s="63">
+        <f>MAX(Censal!D2:D103)</f>
         <v>96476</v>
       </c>
-      <c r="E6" s="77"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="36"/>
     </row>
     <row r="7" spans="2:7" ht="23.15" x14ac:dyDescent="0.4">
@@ -7084,21 +7180,21 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
     </row>
     <row r="12" spans="2:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="C12" s="59">
+      <c r="C12" s="60">
         <f>C9+F9</f>
         <v>912</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="C13" s="46" t="s">
@@ -7142,91 +7238,91 @@
       <c r="F16" s="54"/>
     </row>
     <row r="17" spans="2:7" s="51" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
       <c r="G17" s="52">
         <f>(C12/F14)*1000</f>
         <v>9.4086576156480834</v>
       </c>
     </row>
     <row r="18" spans="2:7" s="51" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
       <c r="G18" s="52">
         <f>(C4/F14)*1000</f>
         <v>3.5282466058680311</v>
       </c>
     </row>
     <row r="19" spans="2:7" s="51" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
       <c r="G19" s="52">
         <f>(C7/F14)*1000</f>
         <v>0.66025667478232164</v>
       </c>
     </row>
     <row r="20" spans="2:7" s="51" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="52">
         <f>G18-G19</f>
         <v>2.8679899310857095</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="52">
         <f>(F4/F14)*1000</f>
         <v>10.068914290430405</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="52">
         <f>(F7/F14)*1000</f>
         <v>3.5282466058680311</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="52">
         <f>G21-G22</f>
         <v>6.5406676845623739</v>
@@ -7234,11 +7330,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
@@ -7246,6 +7337,11 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7282,10 +7378,10 @@
       </c>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="34.299999999999997" x14ac:dyDescent="0.4">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="71"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
@@ -7318,116 +7414,116 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="23" cm="1">
-        <f t="array" ref="E4">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1},TRUE,TRUE),1,1)</f>
-        <v>757.53488372093011</v>
+        <f t="array" ref="E4">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1},TRUE,TRUE),1,1)</f>
+        <v>3064.7439999999997</v>
       </c>
       <c r="F4" s="23" cm="1">
-        <f t="array" ref="F4">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2},TRUE,TRUE),1,1)</f>
-        <v>-357.61904761895187</v>
+        <f t="array" ref="F4">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2},TRUE,TRUE),1,1)</f>
+        <v>1.4522827392875532</v>
       </c>
       <c r="G4" s="23" cm="1">
-        <f t="array" ref="G4">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3},TRUE,TRUE),1,1)</f>
-        <v>-0.11822510871728982</v>
+        <f t="array" ref="G4">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3},TRUE,TRUE),1,1)</f>
+        <v>2.2831244938218735E-4</v>
       </c>
       <c r="H4" s="23" cm="1">
-        <f t="array" ref="H4">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4},TRUE,TRUE),1,1)</f>
-        <v>-4.3969459191874519E-5</v>
+        <f t="array" ref="H4">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4},TRUE,TRUE),1,1)</f>
+        <v>-9.2247170884924526E-9</v>
       </c>
       <c r="I4" s="23" cm="1">
-        <f t="array" ref="I4">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4,5},TRUE,TRUE),1,1)</f>
-        <v>-1.7442994735983312E-8</v>
+        <f t="array" ref="I4">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4,5},TRUE,TRUE),1,1)</f>
+        <v>-4.1199752417292498E-11</v>
       </c>
       <c r="J4" s="23" cm="1">
-        <f t="array" ref="J4">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4,5,6},TRUE,TRUE),1,1)</f>
-        <v>-7.2080790881931563E-12</v>
+        <f t="array" ref="J4">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4,5,6},TRUE,TRUE),1,1)</f>
+        <v>-3.2619303148943985E-14</v>
       </c>
       <c r="K4" s="23" cm="1">
-        <f t="array" ref="K4">INDEX(LINEST(Censal!D2:D4,LN(Censal!C2:C4)^{1},TRUE,TRUE),1,1)</f>
-        <v>1530100.4173203933</v>
+        <f t="array" ref="K4">INDEX(LINEST(Censal!D2:D5,LN(Censal!C2:C5)^{1},TRUE,TRUE),1,1)</f>
+        <v>6155795.2522769663</v>
       </c>
       <c r="L4" s="23" cm="1">
-        <f t="array" ref="L4">INDEX(LINEST(LOG(Censal!D2:D4),LOG(Censal!C2:C4)^{1},TRUE,TRUE),1,1)</f>
-        <v>16.326112064121727</v>
+        <f t="array" ref="L4">INDEX(LINEST(LOG(Censal!D2:D5),LOG(Censal!C2:C5)^{1},TRUE,TRUE),1,1)</f>
+        <v>96.141970919751969</v>
       </c>
       <c r="M4" s="24" cm="1">
-        <f t="array" ref="M4">INDEX(LINEST(LN(Censal!D2:D4),Censal!C2:C4^{1},TRUE,TRUE),1,1)</f>
-        <v>8.0828489802884304E-3</v>
+        <f t="array" ref="M4">INDEX(LINEST(LN(Censal!D2:D5),Censal!C2:C5^{1},TRUE,TRUE),1,1)</f>
+        <v>4.786496665364131E-2</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="25" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="23" cm="1">
-        <f t="array" ref="E5">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1},TRUE,TRUE),1,2)</f>
-        <v>-1435842.418604651</v>
+        <f t="array" ref="E5">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1},TRUE,TRUE),1,2)</f>
+        <v>-6088219.7359999996</v>
       </c>
       <c r="F5" s="23" cm="1">
-        <f t="array" ref="F5">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2},TRUE,TRUE),1,2)</f>
-        <v>1445305.6190472324</v>
+        <f t="array" ref="F5">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2},TRUE,TRUE),1,2)</f>
+        <v>-2769.3579215074492</v>
       </c>
       <c r="G5" s="23" cm="1">
-        <f t="array" ref="G5">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3},TRUE,TRUE),1,2)</f>
-        <v>358.35221077295375</v>
+        <f t="array" ref="G5">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3},TRUE,TRUE),1,2)</f>
+        <v>7.5020754646152599E-2</v>
       </c>
       <c r="H5" s="23" cm="1">
-        <f t="array" ref="H5">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4},TRUE,TRUE),1,2)</f>
-        <v>0.11846744491666297</v>
+        <f t="array" ref="H5">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4},TRUE,TRUE),1,2)</f>
+        <v>2.7791747176950744E-4</v>
       </c>
       <c r="I5" s="23" cm="1">
-        <f t="array" ref="I5">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4,5},TRUE,TRUE),1,2)</f>
-        <v>4.4059572452778403E-5</v>
+        <f t="array" ref="I5">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4,5},TRUE,TRUE),1,2)</f>
+        <v>1.9799102356227095E-7</v>
       </c>
       <c r="J5" s="23" cm="1">
-        <f t="array" ref="J5">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4,5,6},TRUE,TRUE),1,2)</f>
-        <v>1.7478737495571614E-8</v>
+        <f t="array" ref="J5">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4,5,6},TRUE,TRUE),1,2)</f>
+        <v>1.1628100957345996E-10</v>
       </c>
       <c r="K5" s="23" cm="1">
-        <f t="array" ref="K5">INDEX(LINEST(Censal!D2:D4,LN(Censal!C2:C4)^{1},TRUE,TRUE),1,2)</f>
-        <v>-11550988.937221259</v>
+        <f t="array" ref="K5">INDEX(LINEST(Censal!D2:D5,LN(Censal!C2:C5)^{1},TRUE,TRUE),1,2)</f>
+        <v>-46748332.495468512</v>
       </c>
       <c r="L5" s="23" cm="1">
-        <f t="array" ref="L5">INDEX(LINEST(LOG(Censal!D2:D4),LOG(Censal!C2:C4)^{1},TRUE,TRUE),1,2)</f>
-        <v>-48.98880725727961</v>
+        <f t="array" ref="L5">INDEX(LINEST(LOG(Censal!D2:D5),LOG(Censal!C2:C5)^{1},TRUE,TRUE),1,2)</f>
+        <v>-312.75114267193931</v>
       </c>
       <c r="M5" s="24" cm="1">
-        <f t="array" ref="M5">EXP(INDEX(LINEST(LN(Censal!D2:D4),Censal!C2:C4^{1},TRUE,TRUE),1,2))</f>
-        <v>7.6531453292135359E-3</v>
+        <f t="array" ref="M5">EXP(INDEX(LINEST(LN(Censal!D2:D5),Censal!C2:C5^{1},TRUE,TRUE),1,2))</f>
+        <v>1.1000658943646017E-37</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="25" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23" cm="1">
-        <f t="array" ref="F6">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2},TRUE,TRUE),1,3)</f>
-        <v>-1460190467.9996099</v>
+        <f t="array" ref="F6">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2},TRUE,TRUE),1,3)</f>
+        <v>-229143.9787648702</v>
       </c>
       <c r="G6" s="23" cm="1">
-        <f t="array" ref="G6">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3},TRUE,TRUE),1,3)</f>
+        <f t="array" ref="G6">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3},TRUE,TRUE),1,3)</f>
         <v>0</v>
       </c>
       <c r="H6" s="23" cm="1">
-        <f t="array" ref="H6">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4},TRUE,TRUE),1,3)</f>
+        <f t="array" ref="H6">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4},TRUE,TRUE),1,3)</f>
         <v>0</v>
       </c>
       <c r="I6" s="23" cm="1">
-        <f t="array" ref="I6">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4,5},TRUE,TRUE),1,3)</f>
+        <f t="array" ref="I6">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4,5},TRUE,TRUE),1,3)</f>
         <v>0</v>
       </c>
       <c r="J6" s="23" cm="1">
-        <f t="array" ref="J6">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4,5,6},TRUE,TRUE),1,3)</f>
+        <f t="array" ref="J6">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4,5,6},TRUE,TRUE),1,3)</f>
         <v>0</v>
       </c>
       <c r="K6" s="23"/>
@@ -7435,27 +7531,27 @@
       <c r="M6" s="24"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="25" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23" cm="1">
-        <f t="array" ref="G7">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3},TRUE,TRUE),1,4)</f>
-        <v>-487662654.11816859</v>
+        <f t="array" ref="G7">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3},TRUE,TRUE),1,4)</f>
+        <v>-2085311.4775175194</v>
       </c>
       <c r="H7" s="23" cm="1">
-        <f t="array" ref="H7">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4},TRUE,TRUE),1,4)</f>
+        <f t="array" ref="H7">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4},TRUE,TRUE),1,4)</f>
         <v>0</v>
       </c>
       <c r="I7" s="23" cm="1">
-        <f t="array" ref="I7">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4,5},TRUE,TRUE),1,4)</f>
+        <f t="array" ref="I7">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4,5},TRUE,TRUE),1,4)</f>
         <v>0</v>
       </c>
       <c r="J7" s="23" cm="1">
-        <f t="array" ref="J7">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4,5,6},TRUE,TRUE),1,4)</f>
+        <f t="array" ref="J7">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4,5,6},TRUE,TRUE),1,4)</f>
         <v>0</v>
       </c>
       <c r="K7" s="23"/>
@@ -7463,8 +7559,8 @@
       <c r="M7" s="24"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
@@ -7472,15 +7568,15 @@
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23" cm="1">
-        <f t="array" ref="H8">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4},TRUE,TRUE),1,5)</f>
-        <v>-244282157.78902137</v>
+        <f t="array" ref="H8">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4},TRUE,TRUE),1,5)</f>
+        <v>-2034473.1638477633</v>
       </c>
       <c r="I8" s="23" cm="1">
-        <f t="array" ref="I8">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4,5},TRUE,TRUE),1,5)</f>
+        <f t="array" ref="I8">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4,5},TRUE,TRUE),1,5)</f>
         <v>0</v>
       </c>
       <c r="J8" s="23" cm="1">
-        <f t="array" ref="J8">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4,5,6},TRUE,TRUE),1,5)</f>
+        <f t="array" ref="J8">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4,5,6},TRUE,TRUE),1,5)</f>
         <v>0</v>
       </c>
       <c r="K8" s="23"/>
@@ -7488,8 +7584,8 @@
       <c r="M8" s="24"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="25" t="s">
         <v>21</v>
       </c>
@@ -7498,11 +7594,11 @@
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23" cm="1">
-        <f t="array" ref="I9">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4,5},TRUE,TRUE),1,6)</f>
-        <v>-146830542.32927871</v>
+        <f t="array" ref="I9">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4,5},TRUE,TRUE),1,6)</f>
+        <v>-1808193.161968824</v>
       </c>
       <c r="J9" s="23" cm="1">
-        <f t="array" ref="J9">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4,5,6},TRUE,TRUE),1,6)</f>
+        <f t="array" ref="J9">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4,5,6},TRUE,TRUE),1,6)</f>
         <v>0</v>
       </c>
       <c r="K9" s="23"/>
@@ -7510,8 +7606,8 @@
       <c r="M9" s="24"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="25" t="s">
         <v>22</v>
       </c>
@@ -7521,59 +7617,59 @@
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="23" cm="1">
-        <f t="array" ref="J10">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4,5,6},TRUE,TRUE),1,7)</f>
-        <v>-98055026.282756031</v>
+        <f t="array" ref="J10">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4,5,6},TRUE,TRUE),1,7)</f>
+        <v>-1592085.7663482833</v>
       </c>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
       <c r="M10" s="24"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="27" cm="1">
-        <f t="array" ref="E11">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1},TRUE,TRUE),3,1)</f>
-        <v>0.86246849802639713</v>
+        <f t="array" ref="E11">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1},TRUE,TRUE),3,1)</f>
+        <v>0.99999830060146877</v>
       </c>
       <c r="F11" s="27" cm="1">
-        <f t="array" ref="F11">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2},TRUE,TRUE),3,1)</f>
-        <v>1</v>
+        <f t="array" ref="F11">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2},TRUE,TRUE),3,1)</f>
+        <v>0.99999888647736346</v>
       </c>
       <c r="G11" s="27" cm="1">
-        <f t="array" ref="G11">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3},TRUE,TRUE),3,1)</f>
-        <v>1</v>
+        <f t="array" ref="G11">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3},TRUE,TRUE),3,1)</f>
+        <v>0.99999888662461245</v>
       </c>
       <c r="H11" s="27" cm="1">
-        <f t="array" ref="H11">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4},TRUE,TRUE),3,1)</f>
-        <v>1</v>
+        <f t="array" ref="H11">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4},TRUE,TRUE),3,1)</f>
+        <v>0.99999888660857883</v>
       </c>
       <c r="I11" s="27" cm="1">
-        <f t="array" ref="I11">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4,5},TRUE,TRUE),3,1)</f>
-        <v>1</v>
+        <f t="array" ref="I11">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4,5},TRUE,TRUE),3,1)</f>
+        <v>0.99999888642857626</v>
       </c>
       <c r="J11" s="27" cm="1">
-        <f t="array" ref="J11">INDEX(LINEST(Censal!D2:D4,Censal!C2:C4^{1,2,3,4,5,6},TRUE,TRUE),3,1)</f>
-        <v>1</v>
+        <f t="array" ref="J11">INDEX(LINEST(Censal!D2:D5,Censal!C2:C5^{1,2,3,4,5,6},TRUE,TRUE),3,1)</f>
+        <v>0.99999888608388043</v>
       </c>
       <c r="K11" s="27" cm="1">
-        <f t="array" ref="K11">INDEX(LINEST(Censal!D2:D4,LN(Censal!C2:C4)^{1},TRUE,TRUE),3,1)</f>
-        <v>0.86261285602188353</v>
+        <f t="array" ref="K11">INDEX(LINEST(Censal!D2:D5,LN(Censal!C2:C5)^{1},TRUE,TRUE),3,1)</f>
+        <v>0.9999975261068077</v>
       </c>
       <c r="L11" s="27" cm="1">
-        <f t="array" ref="L11">INDEX(LINEST(LOG(Censal!D2:D4),LOG(Censal!C2:C4)^{1},TRUE,TRUE),3,1)</f>
-        <v>0.85597380725272953</v>
+        <f t="array" ref="L11">INDEX(LINEST(LOG(Censal!D2:D5),LOG(Censal!C2:C5)^{1},TRUE,TRUE),3,1)</f>
+        <v>0.99914378127192272</v>
       </c>
       <c r="M11" s="28" cm="1">
-        <f t="array" ref="M11">INDEX(LINEST(LN(Censal!D2:D4),Censal!C2:C4^{1},TRUE,TRUE),3,1)</f>
-        <v>0.85582657355610958</v>
+        <f t="array" ref="M11">INDEX(LINEST(LN(Censal!D2:D5),Censal!C2:C5^{1},TRUE,TRUE),3,1)</f>
+        <v>0.99912018079865139</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="34.299999999999997" x14ac:dyDescent="0.4">
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="29" t="s">
         <v>23</v>
       </c>
@@ -7583,7 +7679,7 @@
       </c>
       <c r="F12" s="30" t="str">
         <f t="shared" ref="F12:M12" si="0">IF(F11=MAX($E$11:$M$11),"✓","")</f>
-        <v>✓</v>
+        <v/>
       </c>
       <c r="G12" s="30" t="str">
         <f t="shared" si="0"/>
@@ -7591,15 +7687,15 @@
       </c>
       <c r="H12" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>✓</v>
+        <v/>
       </c>
       <c r="I12" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>✓</v>
+        <v/>
       </c>
       <c r="J12" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>✓</v>
+        <v/>
       </c>
       <c r="K12" s="30" t="str">
         <f t="shared" si="0"/>
@@ -7615,8 +7711,8 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="55" t="s">
         <v>59</v>
       </c>
@@ -7641,8 +7737,8 @@
       <c r="M13" s="58"/>
     </row>
     <row r="14" spans="2:13" ht="34.299999999999997" x14ac:dyDescent="0.4">
-      <c r="B14" s="74"/>
-      <c r="C14" s="75"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="19" t="s">
         <v>24</v>
       </c>
@@ -7731,44 +7827,44 @@
         <v>Municipio</v>
       </c>
       <c r="D19" s="7">
-        <f>MAX(Censal!C2:C94)+1</f>
-        <v>2024</v>
+        <f>MAX(Censal!C2:C95)+1</f>
+        <v>2019</v>
       </c>
       <c r="E19" s="3">
         <f>ROUND($E$4*$D19+$E$5,0)</f>
-        <v>97408</v>
+        <v>99498</v>
       </c>
       <c r="F19" s="3">
         <f>ROUND($F$4*$D19^2+$F$5*$D19+$F$6,0)</f>
-        <v>94497</v>
+        <v>99551</v>
       </c>
       <c r="G19" s="3">
         <f>ROUND($G$4*$D19^3+$G$5*$D19^2+$G$6*$D19+$G$7,0)</f>
-        <v>94491</v>
+        <v>99551</v>
       </c>
       <c r="H19" s="3">
         <f>ROUND($H$4*$D19^4+$H$5*$D19^3+$H$6*$D19^2+$H$7*$D19+$H$8,0)</f>
-        <v>94484</v>
+        <v>99551</v>
       </c>
       <c r="I19" s="3">
         <f>ROUND($I$4*$D19^5+$I$5*$D19^4+$I$6*$D19^3+$I$7*$D19^2+$I$8*$D19+$I$9,0)</f>
-        <v>94477</v>
+        <v>99551</v>
       </c>
       <c r="J19" s="3">
         <f>ROUND($J$4*$D19^6+$J$5*$D19^5+$J$6*$D19^4+$J$7*$D19^3+$J$8*$D19^2+$J$9*$D19+$J$10,0)</f>
-        <v>94471</v>
+        <v>99551</v>
       </c>
       <c r="K19" s="3">
         <f>ROUND($K$4*LN(D19)+$K$5,0)</f>
-        <v>97407</v>
-      </c>
-      <c r="L19" s="3">
+        <v>99471</v>
+      </c>
+      <c r="L19" s="3" t="e">
         <f>ROUND(10^$L$5*$D19^$L$4,0)</f>
-        <v>97444</v>
+        <v>#NUM!</v>
       </c>
       <c r="M19" s="4">
         <f>ROUND($M$5*EXP($M$4*$D19),0)</f>
-        <v>97445</v>
+        <v>102651</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.4">
@@ -7782,43 +7878,43 @@
       </c>
       <c r="D20" s="7">
         <f t="shared" ref="D20:D29" si="2">D19+$C$17</f>
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ref="E20:E29" si="3">ROUND($E$4*$D20+$E$5,0)</f>
-        <v>101196</v>
+        <v>114822</v>
       </c>
       <c r="F20" s="3">
         <f>ROUND($F$4*$D20^2+$F$5*$D20+$F$6,0)</f>
-        <v>73875</v>
+        <v>115062</v>
       </c>
       <c r="G20" s="3">
         <f>ROUND($G$4*$D20^3+$G$5*$D20^2+$G$6*$D20+$G$7,0)</f>
-        <v>73765</v>
+        <v>115063</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" ref="H20:H29" si="4">ROUND($H$4*$D20^4+$H$5*$D20^3+$H$6*$D20^2+$H$7*$D20+$H$8,0)</f>
-        <v>73654</v>
+        <v>115063</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" ref="I20:I29" si="5">ROUND($I$4*$D20^5+$I$5*$D20^4+$I$6*$D20^3+$I$7*$D20^2+$I$8*$D20+$I$9,0)</f>
-        <v>73542</v>
+        <v>115062</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" ref="J20:J29" si="6">ROUND($J$4*$D20^6+$J$5*$D20^5+$J$6*$D20^4+$J$7*$D20^3+$J$8*$D20^2+$J$9*$D20+$J$10,0)</f>
-        <v>73430</v>
+        <v>115062</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" ref="K20:K29" si="7">ROUND($K$4*LN(D20)+$K$5,0)</f>
-        <v>101182</v>
-      </c>
-      <c r="L20" s="3">
+        <v>114697</v>
+      </c>
+      <c r="L20" s="3" t="e">
         <f t="shared" ref="L20:L29" si="8">ROUND(10^$L$5*$D20^$L$4,0)</f>
-        <v>101450</v>
+        <v>#NUM!</v>
       </c>
       <c r="M20" s="4">
         <f t="shared" ref="M20:M29" si="9">ROUND($M$5*EXP($M$4*$D20),0)</f>
-        <v>101464</v>
+        <v>130407</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
@@ -7832,43 +7928,43 @@
       </c>
       <c r="D21" s="7">
         <f t="shared" si="2"/>
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="3"/>
-        <v>104984</v>
+        <v>130146</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" ref="F21:F29" si="11">ROUND($F$4*$D21^2+$F$5*$D21+$F$6,0)</f>
-        <v>35373</v>
+        <v>130646</v>
       </c>
       <c r="G21" s="3">
         <f>ROUND($G$4*$D21^3+$G$5*$D21^2+$G$6*$D21+$G$7,0)</f>
-        <v>34975</v>
+        <v>130647</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="4"/>
-        <v>34574</v>
+        <v>130647</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="5"/>
-        <v>34171</v>
+        <v>130646</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="6"/>
-        <v>33765</v>
+        <v>130644</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="7"/>
-        <v>104948</v>
-      </c>
-      <c r="L21" s="3">
+        <v>129885</v>
+      </c>
+      <c r="L21" s="3" t="e">
         <f t="shared" si="8"/>
-        <v>105609</v>
+        <v>#NUM!</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" si="9"/>
-        <v>105649</v>
+        <v>165668</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
@@ -7882,43 +7978,43 @@
       </c>
       <c r="D22" s="7">
         <f t="shared" si="2"/>
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="3"/>
-        <v>108771</v>
+        <v>145470</v>
       </c>
       <c r="F22" s="3">
         <f>ROUND($F$4*$D22^2+$F$5*$D22+$F$6,0)</f>
-        <v>-21011</v>
+        <v>146302</v>
       </c>
       <c r="G22" s="3">
         <f>ROUND($G$4*$D22^3+$G$5*$D22^2+$G$6*$D22+$G$7,0)</f>
-        <v>-21968</v>
+        <v>146305</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="4"/>
-        <v>-22934</v>
+        <v>146305</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="5"/>
-        <v>-23907</v>
+        <v>146302</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="6"/>
-        <v>-24889</v>
+        <v>146297</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="7"/>
-        <v>108705</v>
-      </c>
-      <c r="L22" s="3">
+        <v>145036</v>
+      </c>
+      <c r="L22" s="3" t="e">
         <f t="shared" si="8"/>
-        <v>109928</v>
+        <v>#NUM!</v>
       </c>
       <c r="M22" s="4">
         <f t="shared" si="9"/>
-        <v>110006</v>
+        <v>210463</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.4">
@@ -7932,43 +8028,43 @@
       </c>
       <c r="D23" s="7">
         <f t="shared" si="2"/>
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="3"/>
-        <v>112559</v>
+        <v>160793</v>
       </c>
       <c r="F23" s="3">
         <f>ROUND($F$4*$D23^2+$F$5*$D23+$F$6,0)</f>
-        <v>-95276</v>
+        <v>162031</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" ref="G23:G29" si="12">ROUND($G$4*$D23^3+$G$5*$D23^2+$G$6*$D23+$G$7,0)</f>
-        <v>-97153</v>
+        <v>162036</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="4"/>
-        <v>-99049</v>
+        <v>162036</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="5"/>
-        <v>-100966</v>
+        <v>162031</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="6"/>
-        <v>-102902</v>
+        <v>162021</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="7"/>
-        <v>112452</v>
-      </c>
-      <c r="L23" s="3">
+        <v>160149</v>
+      </c>
+      <c r="L23" s="3" t="e">
         <f t="shared" si="8"/>
-        <v>114413</v>
+        <v>#NUM!</v>
       </c>
       <c r="M23" s="4">
         <f t="shared" si="9"/>
-        <v>114543</v>
+        <v>267370</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.4">
@@ -7982,43 +8078,43 @@
       </c>
       <c r="D24" s="7">
         <f t="shared" si="2"/>
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="3"/>
-        <v>116347</v>
+        <v>176117</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="11"/>
-        <v>-187422</v>
+        <v>177833</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="12"/>
-        <v>-190668</v>
+        <v>177841</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="4"/>
-        <v>-193954</v>
+        <v>177840</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="5"/>
-        <v>-197280</v>
+        <v>177832</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="6"/>
-        <v>-200647</v>
+        <v>177814</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="7"/>
-        <v>116191</v>
-      </c>
-      <c r="L24" s="3">
+        <v>175226</v>
+      </c>
+      <c r="L24" s="3" t="e">
         <f t="shared" si="8"/>
-        <v>119069</v>
+        <v>#NUM!</v>
       </c>
       <c r="M24" s="4">
         <f t="shared" si="9"/>
-        <v>119267</v>
+        <v>339664</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.4">
@@ -8032,43 +8128,43 @@
       </c>
       <c r="D25" s="7">
         <f t="shared" si="2"/>
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="3"/>
-        <v>120134</v>
+        <v>191441</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="11"/>
-        <v>-297448</v>
+        <v>193707</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="12"/>
-        <v>-302601</v>
+        <v>193719</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="4"/>
-        <v>-307827</v>
+        <v>193718</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="5"/>
-        <v>-313127</v>
+        <v>193705</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="6"/>
-        <v>-318503</v>
+        <v>193678</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="7"/>
-        <v>119920</v>
-      </c>
-      <c r="L25" s="3">
+        <v>190266</v>
+      </c>
+      <c r="L25" s="3" t="e">
         <f t="shared" si="8"/>
-        <v>123902</v>
+        <v>#NUM!</v>
       </c>
       <c r="M25" s="4">
         <f t="shared" si="9"/>
-        <v>124186</v>
+        <v>431507</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.4">
@@ -8082,43 +8178,43 @@
       </c>
       <c r="D26" s="7">
         <f t="shared" si="2"/>
-        <v>2059</v>
+        <v>2054</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="3"/>
-        <v>123922</v>
+        <v>206764</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="11"/>
-        <v>-425356</v>
+        <v>209654</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="12"/>
-        <v>-433043</v>
+        <v>209671</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="4"/>
-        <v>-440852</v>
+        <v>209670</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="5"/>
-        <v>-448787</v>
+        <v>209650</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="6"/>
-        <v>-456850</v>
+        <v>209610</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="7"/>
-        <v>123640</v>
-      </c>
-      <c r="L26" s="3">
+        <v>205269</v>
+      </c>
+      <c r="L26" s="3" t="e">
         <f t="shared" si="8"/>
-        <v>128919</v>
+        <v>#NUM!</v>
       </c>
       <c r="M26" s="4">
         <f t="shared" si="9"/>
-        <v>129307</v>
+        <v>548182</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.4">
@@ -8132,43 +8228,43 @@
       </c>
       <c r="D27" s="7">
         <f t="shared" si="2"/>
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="3"/>
-        <v>127710</v>
+        <v>222088</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="11"/>
-        <v>-571145</v>
+        <v>225673</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="12"/>
-        <v>-582080</v>
+        <v>225698</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="4"/>
-        <v>-593211</v>
+        <v>225696</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="5"/>
-        <v>-604541</v>
+        <v>225667</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="6"/>
-        <v>-616074</v>
+        <v>225610</v>
       </c>
       <c r="K27" s="3">
         <f t="shared" si="7"/>
-        <v>127351</v>
-      </c>
-      <c r="L27" s="3">
+        <v>220236</v>
+      </c>
+      <c r="L27" s="3" t="e">
         <f t="shared" si="8"/>
-        <v>134127</v>
+        <v>#NUM!</v>
       </c>
       <c r="M27" s="4">
         <f t="shared" si="9"/>
-        <v>134640</v>
+        <v>696406</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
@@ -8182,43 +8278,43 @@
       </c>
       <c r="D28" s="7">
         <f t="shared" si="2"/>
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" si="3"/>
-        <v>131497</v>
+        <v>237412</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="11"/>
-        <v>-734814</v>
+        <v>241765</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="12"/>
-        <v>-749802</v>
+        <v>241799</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="4"/>
-        <v>-765086</v>
+        <v>241796</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="5"/>
-        <v>-780672</v>
+        <v>241757</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="6"/>
-        <v>-796567</v>
+        <v>241678</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="7"/>
-        <v>131053</v>
-      </c>
-      <c r="L28" s="3">
+        <v>235166</v>
+      </c>
+      <c r="L28" s="3" t="e">
         <f t="shared" si="8"/>
-        <v>139531</v>
+        <v>#NUM!</v>
       </c>
       <c r="M28" s="4">
         <f t="shared" si="9"/>
-        <v>140193</v>
+        <v>884708</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.4">
@@ -8232,43 +8328,43 @@
       </c>
       <c r="D29" s="8">
         <f t="shared" si="2"/>
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="3"/>
-        <v>135285</v>
+        <v>252736</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="11"/>
-        <v>-916365</v>
+        <v>257930</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="12"/>
-        <v>-936298</v>
+        <v>257974</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="4"/>
-        <v>-956662</v>
+        <v>257970</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="5"/>
-        <v>-977467</v>
+        <v>257918</v>
       </c>
       <c r="J29" s="5">
         <f t="shared" si="6"/>
-        <v>-998722</v>
+        <v>257814</v>
       </c>
       <c r="K29" s="5">
         <f t="shared" si="7"/>
-        <v>134747</v>
-      </c>
-      <c r="L29" s="5">
+        <v>250060</v>
+      </c>
+      <c r="L29" s="5" t="e">
         <f t="shared" si="8"/>
-        <v>145139</v>
+        <v>#NUM!</v>
       </c>
       <c r="M29" s="6">
         <f t="shared" si="9"/>
-        <v>145975</v>
+        <v>1123925</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.4">
@@ -8328,7 +8424,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -8369,46 +8465,46 @@
       </c>
       <c r="C2" s="2">
         <f>Censal!C2</f>
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="D2" s="2">
         <f>Censal!D2</f>
-        <v>90300</v>
+        <v>41271</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="str">
-        <f>Censal!A3</f>
+        <f>Censal!A4</f>
         <v>SISBEN</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>Censal!B3</f>
+        <f>Censal!B4</f>
         <v>Municipio</v>
       </c>
       <c r="C3" s="2">
-        <f>Censal!C3</f>
+        <f>Censal!C4</f>
         <v>2017</v>
       </c>
       <c r="D3" s="2">
-        <f>Censal!D3</f>
+        <f>Censal!D4</f>
         <v>93328</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="str">
-        <f>Censal!A4</f>
+        <f>Censal!A5</f>
         <v>SISBEN</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>Censal!B4</f>
+        <f>Censal!B5</f>
         <v>Municipio</v>
       </c>
       <c r="C4" s="2">
-        <f>Censal!C4</f>
-        <v>2023</v>
+        <f>Censal!C5</f>
+        <v>2018</v>
       </c>
       <c r="D4" s="2">
-        <f>Censal!D4</f>
+        <f>Censal!D5</f>
         <v>96476</v>
       </c>
     </row>
@@ -8423,11 +8519,11 @@
       </c>
       <c r="C5" s="2">
         <f>ProyectadaTotal!D19</f>
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D5" s="2">
         <f>ProyectadaTotal!E19</f>
-        <v>97408</v>
+        <v>99498</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -8441,11 +8537,11 @@
       </c>
       <c r="C6" s="2">
         <f>ProyectadaTotal!D20</f>
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="D6" s="2">
         <f>ProyectadaTotal!E20</f>
-        <v>101196</v>
+        <v>114822</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -8459,11 +8555,11 @@
       </c>
       <c r="C7" s="2">
         <f>ProyectadaTotal!D21</f>
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="D7" s="2">
         <f>ProyectadaTotal!E21</f>
-        <v>104984</v>
+        <v>130146</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -8477,11 +8573,11 @@
       </c>
       <c r="C8" s="2">
         <f>ProyectadaTotal!D22</f>
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="D8" s="2">
         <f>ProyectadaTotal!E22</f>
-        <v>108771</v>
+        <v>145470</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -8495,11 +8591,11 @@
       </c>
       <c r="C9" s="2">
         <f>ProyectadaTotal!D23</f>
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="D9" s="2">
         <f>ProyectadaTotal!E23</f>
-        <v>112559</v>
+        <v>160793</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -8513,11 +8609,11 @@
       </c>
       <c r="C10" s="2">
         <f>ProyectadaTotal!D24</f>
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="D10" s="2">
         <f>ProyectadaTotal!E24</f>
-        <v>116347</v>
+        <v>176117</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -8531,11 +8627,11 @@
       </c>
       <c r="C11" s="2">
         <f>ProyectadaTotal!D25</f>
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="D11" s="2">
         <f>ProyectadaTotal!E25</f>
-        <v>120134</v>
+        <v>191441</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -8549,11 +8645,11 @@
       </c>
       <c r="C12" s="2">
         <f>ProyectadaTotal!D26</f>
-        <v>2059</v>
+        <v>2054</v>
       </c>
       <c r="D12" s="2">
         <f>ProyectadaTotal!E26</f>
-        <v>123922</v>
+        <v>206764</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -8567,11 +8663,11 @@
       </c>
       <c r="C13" s="2">
         <f>ProyectadaTotal!D27</f>
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="D13" s="2">
         <f>ProyectadaTotal!E27</f>
-        <v>127710</v>
+        <v>222088</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -8585,11 +8681,11 @@
       </c>
       <c r="C14" s="2">
         <f>ProyectadaTotal!D28</f>
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="D14" s="2">
         <f>ProyectadaTotal!E28</f>
-        <v>131497</v>
+        <v>237412</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -8603,11 +8699,11 @@
       </c>
       <c r="C15" s="2">
         <f>ProyectadaTotal!D29</f>
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="D15" s="2">
         <f>ProyectadaTotal!E29</f>
-        <v>135285</v>
+        <v>252736</v>
       </c>
     </row>
   </sheetData>

--- a/activity/Population/PoblacionSISBEN.xlsx
+++ b/activity/Population/PoblacionSISBEN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\Population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F513CE-205D-4902-8EF1-C73092B049C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0632A5CF-DA2D-4E7E-8B49-3E41526B9D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" tabRatio="769" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Censal" sheetId="2" r:id="rId1"/>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>Logarítmica</t>
   </si>
@@ -564,9 +564,6 @@
   </si>
   <si>
     <t>Observación</t>
-  </si>
-  <si>
-    <t>Sobre ajuste</t>
   </si>
   <si>
     <t>PT15_64</t>
@@ -1078,7 +1075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1310,6 +1307,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2254,72 +2254,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-4271-4B8C-B6A9-4BA10104E465}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>ProyectadaTotal!$D$19:$D$29</c:f>
@@ -2790,72 +2724,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-4271-4B8C-B6A9-4BA10104E465}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>ProyectadaTotal!$D$19:$D$29</c:f>
@@ -3916,7 +3784,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.1219274724928159E-2"/>
@@ -3932,9 +3800,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-51A8-433A-A9F0-01F10F684766}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3991,50 +3856,53 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>PoblacionGIS!$C$2:$C$15</c:f>
+              <c:f>PoblacionGIS!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2019</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2024</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2029</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2034</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2039</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2044</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2049</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2054</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2059</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>2064</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>2069</c:v>
                 </c:pt>
               </c:numCache>
@@ -4042,50 +3910,53 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PoblacionGIS!$D$2:$D$15</c:f>
+              <c:f>PoblacionGIS!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>41271</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>90300</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>93328</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>96476</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>99498</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>114822</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>130146</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>145470</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>160793</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>176117</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>191441</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>206764</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>222088</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>237412</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>252736</c:v>
                 </c:pt>
               </c:numCache>
@@ -4113,6 +3984,8 @@
         <c:axId val="663400352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2070"/>
+          <c:min val="1995"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4337,8 +4210,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6303841988887686E-2"/>
-          <c:y val="8.4298645036057371E-2"/>
+          <c:x val="8.7341702740499905E-2"/>
+          <c:y val="0.10447882384197553"/>
           <c:w val="7.3021512565183994E-2"/>
           <c:h val="4.7994344465164852E-2"/>
         </c:manualLayout>
@@ -6083,7 +5956,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7719926C-FDFD-4B6F-9591-D15E2C7B4756}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
+    <sheetView zoomScale="130" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -6095,7 +5968,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B74D3F2C-D5F1-41AE-ACE4-DFC0B9A95345}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -6107,7 +5980,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{86C66609-86C6-4B72-9620-31705379CED0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -6479,7 +6352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0463F7D-8A04-4EDE-8789-543ED0F016DA}">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
@@ -6520,13 +6393,13 @@
         <v>38</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>28</v>
@@ -6538,10 +6411,10 @@
         <v>30</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>33</v>
@@ -6553,10 +6426,10 @@
         <v>32</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T1" s="10" t="s">
         <v>34</v>
@@ -6568,15 +6441,15 @@
         <v>36</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>14</v>
@@ -7349,10 +7222,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94697D0-7CF3-40B1-9A24-C33BBE54D035}">
-  <dimension ref="B2:M38"/>
+  <dimension ref="B2:O38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -7374,7 +7247,7 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="34.299999999999997" x14ac:dyDescent="0.4">
@@ -7717,21 +7590,11 @@
         <v>59</v>
       </c>
       <c r="E13" s="57"/>
-      <c r="F13" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="57" t="s">
-        <v>60</v>
-      </c>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
       <c r="K13" s="57"/>
       <c r="L13" s="57"/>
       <c r="M13" s="58"/>
@@ -7756,10 +7619,10 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -7767,11 +7630,12 @@
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="2:13" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="N17" s="78"/>
+    </row>
+    <row r="18" spans="2:15" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B18" s="16" t="s">
         <v>2</v>
       </c>
@@ -7818,9 +7682,9 @@
         <v>Exponencial</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="7" t="str">
         <f>Censal!$B$2</f>
@@ -7866,8 +7730,9 @@
         <f>ROUND($M$5*EXP($M$4*$D19),0)</f>
         <v>102651</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B20" s="17" t="str">
         <f>B19</f>
         <v>Proyectada</v>
@@ -7909,17 +7774,17 @@
         <v>114697</v>
       </c>
       <c r="L20" s="3" t="e">
-        <f t="shared" ref="L20:L29" si="8">ROUND(10^$L$5*$D20^$L$4,0)</f>
+        <f>ROUND(10^$L$5*$D20^$L$4,0)</f>
         <v>#NUM!</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" ref="M20:M29" si="9">ROUND($M$5*EXP($M$4*$D20),0)</f>
+        <f t="shared" ref="M20:M29" si="8">ROUND($M$5*EXP($M$4*$D20),0)</f>
         <v>130407</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B21" s="17" t="str">
-        <f t="shared" ref="B21:B29" si="10">B20</f>
+        <f t="shared" ref="B21:B29" si="9">B20</f>
         <v>Proyectada</v>
       </c>
       <c r="C21" s="7" t="str">
@@ -7935,7 +7800,7 @@
         <v>130146</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" ref="F21:F29" si="11">ROUND($F$4*$D21^2+$F$5*$D21+$F$6,0)</f>
+        <f t="shared" ref="F21:F29" si="10">ROUND($F$4*$D21^2+$F$5*$D21+$F$6,0)</f>
         <v>130646</v>
       </c>
       <c r="G21" s="3">
@@ -7959,17 +7824,17 @@
         <v>129885</v>
       </c>
       <c r="L21" s="3" t="e">
+        <f>ROUND(10^$L$5*$D21^$L$4,0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M21" s="4">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M21" s="4">
+        <v>165668</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B22" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>165668</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B22" s="17" t="str">
-        <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
       <c r="C22" s="7" t="str">
@@ -8009,17 +7874,17 @@
         <v>145036</v>
       </c>
       <c r="L22" s="3" t="e">
+        <f t="shared" ref="L22:L29" si="11">ROUND(10^$L$5*$D22^$L$4,0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M22" s="4">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M22" s="4">
+        <v>210463</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B23" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>210463</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B23" s="17" t="str">
-        <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
       <c r="C23" s="7" t="str">
@@ -8059,17 +7924,17 @@
         <v>160149</v>
       </c>
       <c r="L23" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M23" s="4">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M23" s="4">
+        <v>267370</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B24" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>267370</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B24" s="17" t="str">
-        <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
       <c r="C24" s="7" t="str">
@@ -8085,7 +7950,7 @@
         <v>176117</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>177833</v>
       </c>
       <c r="G24" s="3">
@@ -8109,17 +7974,17 @@
         <v>175226</v>
       </c>
       <c r="L24" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M24" s="4">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M24" s="4">
+        <v>339664</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B25" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>339664</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B25" s="17" t="str">
-        <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
       <c r="C25" s="7" t="str">
@@ -8135,7 +8000,7 @@
         <v>191441</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>193707</v>
       </c>
       <c r="G25" s="3">
@@ -8159,17 +8024,17 @@
         <v>190266</v>
       </c>
       <c r="L25" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M25" s="4">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M25" s="4">
+        <v>431507</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B26" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>431507</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B26" s="17" t="str">
-        <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
       <c r="C26" s="7" t="str">
@@ -8185,7 +8050,7 @@
         <v>206764</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>209654</v>
       </c>
       <c r="G26" s="3">
@@ -8209,17 +8074,17 @@
         <v>205269</v>
       </c>
       <c r="L26" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M26" s="4">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M26" s="4">
+        <v>548182</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B27" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>548182</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B27" s="17" t="str">
-        <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
       <c r="C27" s="7" t="str">
@@ -8235,7 +8100,7 @@
         <v>222088</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>225673</v>
       </c>
       <c r="G27" s="3">
@@ -8259,17 +8124,17 @@
         <v>220236</v>
       </c>
       <c r="L27" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M27" s="4">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M27" s="4">
+        <v>696406</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B28" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>696406</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="17" t="str">
-        <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
       <c r="C28" s="7" t="str">
@@ -8285,7 +8150,7 @@
         <v>237412</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>241765</v>
       </c>
       <c r="G28" s="3">
@@ -8309,17 +8174,17 @@
         <v>235166</v>
       </c>
       <c r="L28" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M28" s="4">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M28" s="4">
+        <v>884708</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B29" s="18" t="str">
         <f t="shared" si="9"/>
-        <v>884708</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B29" s="18" t="str">
-        <f t="shared" si="10"/>
         <v>Proyectada</v>
       </c>
       <c r="C29" s="8" t="str">
@@ -8335,7 +8200,7 @@
         <v>252736</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>257930</v>
       </c>
       <c r="G29" s="5">
@@ -8359,24 +8224,24 @@
         <v>250060</v>
       </c>
       <c r="L29" s="5" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M29" s="6">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M29" s="6">
-        <f t="shared" si="9"/>
         <v>1123925</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B32" s="2" t="str">
         <f>_xlfn.CONCAT(Censal!A2," - Población censal ",Censal!B2," y población proyectada a ",D29-D19," años con diferentes tendencias")</f>
         <v>SISBEN - Población censal Municipio y población proyectada a 50 años con diferentes tendencias</v>
@@ -8420,11 +8285,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3DC757-E655-4AB9-91FA-E1AE22FE7E6A}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -8474,234 +8339,252 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="str">
+        <f>Censal!A3</f>
+        <v>SISBEN</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>Censal!B3</f>
+        <v>Municipio</v>
+      </c>
+      <c r="C3" s="2">
+        <f>Censal!C3</f>
+        <v>2016</v>
+      </c>
+      <c r="D3" s="2">
+        <f>Censal!D3</f>
+        <v>90300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="str">
         <f>Censal!A4</f>
         <v>SISBEN</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B4" s="2" t="str">
         <f>Censal!B4</f>
         <v>Municipio</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <f>Censal!C4</f>
         <v>2017</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <f>Censal!D4</f>
         <v>93328</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="str">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="str">
         <f>Censal!A5</f>
         <v>SISBEN</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B5" s="2" t="str">
         <f>Censal!B5</f>
         <v>Municipio</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <f>Censal!C5</f>
         <v>2018</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <f>Censal!D5</f>
         <v>96476</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="str">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="str">
         <f>ProyectadaTotal!B19</f>
         <v>Proyectada</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B6" s="2" t="str">
         <f>ProyectadaTotal!C19</f>
         <v>Municipio</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <f>ProyectadaTotal!D19</f>
         <v>2019</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <f>ProyectadaTotal!E19</f>
         <v>99498</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="str">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="str">
         <f>ProyectadaTotal!B20</f>
         <v>Proyectada</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B7" s="2" t="str">
         <f>ProyectadaTotal!C20</f>
         <v>Municipio</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <f>ProyectadaTotal!D20</f>
         <v>2024</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <f>ProyectadaTotal!E20</f>
         <v>114822</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="str">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="str">
         <f>ProyectadaTotal!B21</f>
         <v>Proyectada</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B8" s="2" t="str">
         <f>ProyectadaTotal!C21</f>
         <v>Municipio</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <f>ProyectadaTotal!D21</f>
         <v>2029</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <f>ProyectadaTotal!E21</f>
         <v>130146</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="str">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="str">
         <f>ProyectadaTotal!B22</f>
         <v>Proyectada</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B9" s="2" t="str">
         <f>ProyectadaTotal!C22</f>
         <v>Municipio</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <f>ProyectadaTotal!D22</f>
         <v>2034</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <f>ProyectadaTotal!E22</f>
         <v>145470</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="str">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="str">
         <f>ProyectadaTotal!B23</f>
         <v>Proyectada</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B10" s="2" t="str">
         <f>ProyectadaTotal!C23</f>
         <v>Municipio</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <f>ProyectadaTotal!D23</f>
         <v>2039</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <f>ProyectadaTotal!E23</f>
         <v>160793</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="str">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="str">
         <f>ProyectadaTotal!B24</f>
         <v>Proyectada</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B11" s="2" t="str">
         <f>ProyectadaTotal!C24</f>
         <v>Municipio</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <f>ProyectadaTotal!D24</f>
         <v>2044</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <f>ProyectadaTotal!E24</f>
         <v>176117</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="str">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="str">
         <f>ProyectadaTotal!B25</f>
         <v>Proyectada</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B12" s="2" t="str">
         <f>ProyectadaTotal!C25</f>
         <v>Municipio</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <f>ProyectadaTotal!D25</f>
         <v>2049</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <f>ProyectadaTotal!E25</f>
         <v>191441</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="str">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="str">
         <f>ProyectadaTotal!B26</f>
         <v>Proyectada</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B13" s="2" t="str">
         <f>ProyectadaTotal!C26</f>
         <v>Municipio</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <f>ProyectadaTotal!D26</f>
         <v>2054</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <f>ProyectadaTotal!E26</f>
         <v>206764</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="str">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="str">
         <f>ProyectadaTotal!B27</f>
         <v>Proyectada</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B14" s="2" t="str">
         <f>ProyectadaTotal!C27</f>
         <v>Municipio</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <f>ProyectadaTotal!D27</f>
         <v>2059</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <f>ProyectadaTotal!E27</f>
         <v>222088</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="str">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="str">
         <f>ProyectadaTotal!B28</f>
         <v>Proyectada</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B15" s="2" t="str">
         <f>ProyectadaTotal!C28</f>
         <v>Municipio</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <f>ProyectadaTotal!D28</f>
         <v>2064</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <f>ProyectadaTotal!E28</f>
         <v>237412</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="str">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="str">
         <f>ProyectadaTotal!B29</f>
         <v>Proyectada</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B16" s="2" t="str">
         <f>ProyectadaTotal!C29</f>
         <v>Municipio</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <f>ProyectadaTotal!D29</f>
         <v>2069</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <f>ProyectadaTotal!E29</f>
         <v>252736</v>
       </c>
